--- a/test-tools/PURE_LAMBDA_RESULTS/PURE_COLD_STARTS/PYTHON_PURE_COLDSTART.xlsx
+++ b/test-tools/PURE_LAMBDA_RESULTS/PURE_COLD_STARTS/PYTHON_PURE_COLDSTART.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisconnor/Sites/HONOURS_PROJECT/test-tools/PURE_LAMBDA_RESULTS/PURE_COLD_STARTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FCEC84-AF06-B74C-90E2-5D1910520756}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D0A539-20E6-EF4F-B8F7-7E11F72B0A58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51620" yWindow="4960" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Chart1" sheetId="3" r:id="rId2"/>
-    <sheet name="PYTHON_PURE_COLDSTART" sheetId="1" r:id="rId3"/>
+    <sheet name="Chart2" sheetId="4" r:id="rId3"/>
+    <sheet name="PYTHON_PURE_COLDSTART" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="222" r:id="rId4"/>
+    <pivotCache cacheId="226" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1287,6 +1288,610 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Python Direct Invocation Statistics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PYTHON_PURE_COLDSTART!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PYTHON_PURE_COLDSTART!$J$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEDIAN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MIN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>STDEV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PYTHON_PURE_COLDSTART!$J$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>0"ms"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>83.989032258064512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4491923808792837</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3278-754A-BA38-F542DC048B8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PYTHON_PURE_COLDSTART!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PYTHON_PURE_COLDSTART!$J$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEDIAN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MIN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>STDEV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PYTHON_PURE_COLDSTART!$J$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>0"ms"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>48.365161290322575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.770771690222698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.963000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3278-754A-BA38-F542DC048B8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PYTHON_PURE_COLDSTART!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2048 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PYTHON_PURE_COLDSTART!$J$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEDIAN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MIN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>STDEV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PYTHON_PURE_COLDSTART!$J$6:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>0"ms"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42.929032258064517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7712324031481126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.519999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3278-754A-BA38-F542DC048B8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="88377552"/>
+        <c:axId val="88458048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="88377552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88458048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88458048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0&quot;ms&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88377552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1905,6 +2510,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
@@ -2842,11 +3487,491 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E2294D25-7A43-8243-A00D-BB8E2CA11845}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="247" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FB7838E7-BDBA-6040-A241-90B649527ECA}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2887,6 +4012,39 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308439" cy="6071040"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0D2AD0-5036-AA49-B8F4-C692C4CF391B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3737,7 +4895,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable19" cacheId="222" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable19" cacheId="226" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -4148,7 +5306,7 @@
   <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4193,7 +5351,7 @@
         <v>62</v>
       </c>
       <c r="F2">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" ref="F2:F33" si="0">FLOOR(ROW(),10)</f>
         <v>0</v>
       </c>
     </row>
@@ -4214,7 +5372,7 @@
         <v>68</v>
       </c>
       <c r="F3">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -4253,7 +5411,7 @@
         <v>68</v>
       </c>
       <c r="F4">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
@@ -4301,7 +5459,7 @@
         <v>62</v>
       </c>
       <c r="F5">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="2">
@@ -4349,7 +5507,7 @@
         <v>60</v>
       </c>
       <c r="F6">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="2">
@@ -4397,7 +5555,7 @@
         <v>62</v>
       </c>
       <c r="F7">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4418,7 +5576,7 @@
         <v>68</v>
       </c>
       <c r="F8">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4439,7 +5597,7 @@
         <v>69</v>
       </c>
       <c r="F9">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4460,7 +5618,7 @@
         <v>69</v>
       </c>
       <c r="F10">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4481,7 +5639,7 @@
         <v>69</v>
       </c>
       <c r="F11">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4502,7 +5660,7 @@
         <v>62</v>
       </c>
       <c r="F12">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4523,7 +5681,7 @@
         <v>69</v>
       </c>
       <c r="F13">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4544,7 +5702,7 @@
         <v>62</v>
       </c>
       <c r="F14">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4565,7 +5723,7 @@
         <v>62</v>
       </c>
       <c r="F15">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4586,7 +5744,7 @@
         <v>69</v>
       </c>
       <c r="F16">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4607,7 +5765,7 @@
         <v>62</v>
       </c>
       <c r="F17">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4628,7 +5786,7 @@
         <v>69</v>
       </c>
       <c r="F18">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4649,7 +5807,7 @@
         <v>69</v>
       </c>
       <c r="F19">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4670,7 +5828,7 @@
         <v>69</v>
       </c>
       <c r="F20">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4691,7 +5849,7 @@
         <v>69</v>
       </c>
       <c r="F21">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4712,7 +5870,7 @@
         <v>68</v>
       </c>
       <c r="F22">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4733,7 +5891,7 @@
         <v>69</v>
       </c>
       <c r="F23">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4754,7 +5912,7 @@
         <v>68</v>
       </c>
       <c r="F24">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4775,7 +5933,7 @@
         <v>68</v>
       </c>
       <c r="F25">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4796,7 +5954,7 @@
         <v>68</v>
       </c>
       <c r="F26">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4817,7 +5975,7 @@
         <v>69</v>
       </c>
       <c r="F27">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4838,7 +5996,7 @@
         <v>69</v>
       </c>
       <c r="F28">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4859,7 +6017,7 @@
         <v>68</v>
       </c>
       <c r="F29">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4880,7 +6038,7 @@
         <v>69</v>
       </c>
       <c r="F30">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -4901,7 +6059,7 @@
         <v>69</v>
       </c>
       <c r="F31">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -4922,7 +6080,7 @@
         <v>69</v>
       </c>
       <c r="F32">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -4943,7 +6101,7 @@
         <v>69</v>
       </c>
       <c r="F33">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -4964,7 +6122,7 @@
         <v>69</v>
       </c>
       <c r="F34">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" ref="F34:F65" si="1">FLOOR(ROW(),10)</f>
         <v>30</v>
       </c>
     </row>
@@ -4985,7 +6143,7 @@
         <v>69</v>
       </c>
       <c r="F35">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -5006,7 +6164,7 @@
         <v>70</v>
       </c>
       <c r="F36">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -5027,7 +6185,7 @@
         <v>69</v>
       </c>
       <c r="F37">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -5048,7 +6206,7 @@
         <v>70</v>
       </c>
       <c r="F38">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -5069,7 +6227,7 @@
         <v>69</v>
       </c>
       <c r="F39">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -5090,7 +6248,7 @@
         <v>69</v>
       </c>
       <c r="F40">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -5111,7 +6269,7 @@
         <v>69</v>
       </c>
       <c r="F41">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -5132,7 +6290,7 @@
         <v>70</v>
       </c>
       <c r="F42">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -5153,7 +6311,7 @@
         <v>69</v>
       </c>
       <c r="F43">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -5174,7 +6332,7 @@
         <v>69</v>
       </c>
       <c r="F44">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -5195,7 +6353,7 @@
         <v>69</v>
       </c>
       <c r="F45">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -5216,7 +6374,7 @@
         <v>69</v>
       </c>
       <c r="F46">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -5237,7 +6395,7 @@
         <v>69</v>
       </c>
       <c r="F47">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -5258,7 +6416,7 @@
         <v>70</v>
       </c>
       <c r="F48">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -5279,7 +6437,7 @@
         <v>69</v>
       </c>
       <c r="F49">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -5300,7 +6458,7 @@
         <v>70</v>
       </c>
       <c r="F50">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -5321,7 +6479,7 @@
         <v>69</v>
       </c>
       <c r="F51">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -5342,7 +6500,7 @@
         <v>69</v>
       </c>
       <c r="F52">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -5363,7 +6521,7 @@
         <v>70</v>
       </c>
       <c r="F53">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -5384,7 +6542,7 @@
         <v>69</v>
       </c>
       <c r="F54">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -5405,7 +6563,7 @@
         <v>69</v>
       </c>
       <c r="F55">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -5426,7 +6584,7 @@
         <v>69</v>
       </c>
       <c r="F56">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -5447,7 +6605,7 @@
         <v>69</v>
       </c>
       <c r="F57">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -5468,7 +6626,7 @@
         <v>69</v>
       </c>
       <c r="F58">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -5489,7 +6647,7 @@
         <v>69</v>
       </c>
       <c r="F59">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -5510,7 +6668,7 @@
         <v>69</v>
       </c>
       <c r="F60">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -5531,7 +6689,7 @@
         <v>69</v>
       </c>
       <c r="F61">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -5552,7 +6710,7 @@
         <v>70</v>
       </c>
       <c r="F62">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -5573,7 +6731,7 @@
         <v>69</v>
       </c>
       <c r="F63">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -5594,7 +6752,7 @@
         <v>71</v>
       </c>
       <c r="F64">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -5615,7 +6773,7 @@
         <v>70</v>
       </c>
       <c r="F65">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -5636,7 +6794,7 @@
         <v>71</v>
       </c>
       <c r="F66">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" ref="F66:F94" si="2">FLOOR(ROW(),10)</f>
         <v>60</v>
       </c>
     </row>
@@ -5657,7 +6815,7 @@
         <v>70</v>
       </c>
       <c r="F67">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -5678,7 +6836,7 @@
         <v>70</v>
       </c>
       <c r="F68">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -5699,7 +6857,7 @@
         <v>71</v>
       </c>
       <c r="F69">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -5720,7 +6878,7 @@
         <v>70</v>
       </c>
       <c r="F70">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -5741,7 +6899,7 @@
         <v>70</v>
       </c>
       <c r="F71">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -5762,7 +6920,7 @@
         <v>71</v>
       </c>
       <c r="F72">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -5783,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="F73">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -5804,7 +6962,7 @@
         <v>70</v>
       </c>
       <c r="F74">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -5825,7 +6983,7 @@
         <v>70</v>
       </c>
       <c r="F75">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -5846,7 +7004,7 @@
         <v>70</v>
       </c>
       <c r="F76">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -5867,7 +7025,7 @@
         <v>70</v>
       </c>
       <c r="F77">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -5888,7 +7046,7 @@
         <v>70</v>
       </c>
       <c r="F78">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -5909,7 +7067,7 @@
         <v>69</v>
       </c>
       <c r="F79">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -5930,7 +7088,7 @@
         <v>71</v>
       </c>
       <c r="F80">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -5951,7 +7109,7 @@
         <v>71</v>
       </c>
       <c r="F81">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -5972,7 +7130,7 @@
         <v>70</v>
       </c>
       <c r="F82">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -5993,7 +7151,7 @@
         <v>71</v>
       </c>
       <c r="F83">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -6014,7 +7172,7 @@
         <v>71</v>
       </c>
       <c r="F84">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -6035,7 +7193,7 @@
         <v>71</v>
       </c>
       <c r="F85">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -6056,7 +7214,7 @@
         <v>70</v>
       </c>
       <c r="F86">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -6077,7 +7235,7 @@
         <v>70</v>
       </c>
       <c r="F87">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -6098,7 +7256,7 @@
         <v>70</v>
       </c>
       <c r="F88">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -6119,7 +7277,7 @@
         <v>70</v>
       </c>
       <c r="F89">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -6140,7 +7298,7 @@
         <v>71</v>
       </c>
       <c r="F90">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
@@ -6161,7 +7319,7 @@
         <v>70</v>
       </c>
       <c r="F91">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
@@ -6182,7 +7340,7 @@
         <v>70</v>
       </c>
       <c r="F92">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
@@ -6203,7 +7361,7 @@
         <v>71</v>
       </c>
       <c r="F93">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
@@ -6224,7 +7382,7 @@
         <v>71</v>
       </c>
       <c r="F94">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
